--- a/data/trans_camb/IP2004-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP2004-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 8,08</t>
+          <t>-4,8; 8,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 2,64</t>
+          <t>-8,86; 1,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 7,03</t>
+          <t>-7,47; 6,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 2,72</t>
+          <t>-8,79; 3,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 4,91</t>
+          <t>-8,93; 4,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,79; -2,25</t>
+          <t>-12,47; -2,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 3,96</t>
+          <t>-5,41; 3,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 1,31</t>
+          <t>-6,61; 1,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 0,97</t>
+          <t>-7,69; 0,86</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,82; 279,41</t>
+          <t>-60,01; 282,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 142,95</t>
+          <t>-92,43; 112,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 268,81</t>
+          <t>-100,0; 291,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-80,73; 71,17</t>
+          <t>-79,67; 87,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-82,78; 138,59</t>
+          <t>-85,75; 129,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -1,26</t>
+          <t>-100,0; 33,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,84; 99,17</t>
+          <t>-60,99; 89,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-76,89; 39,87</t>
+          <t>-76,47; 49,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-90,48; 32,58</t>
+          <t>-89,36; 29,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,07</t>
+          <t>-3,29; 0,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; -0,02</t>
+          <t>-3,47; 0,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; -0,03</t>
+          <t>-3,56; -0,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,92</t>
+          <t>-1,78; 1,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,93</t>
+          <t>-1,9; 2,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; -0,05</t>
+          <t>-3,46; 0,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,45</t>
+          <t>-2,14; 0,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,49</t>
+          <t>-2,13; 0,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; -0,38</t>
+          <t>-3,13; -0,48</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,5; 5,43</t>
+          <t>-71,26; 13,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,72; 6,83</t>
+          <t>-75,24; 5,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,15; 2,85</t>
+          <t>-75,16; 1,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,41; 83,88</t>
+          <t>-45,82; 88,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,88; 87,17</t>
+          <t>-49,85; 104,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,01; 10,3</t>
+          <t>-82,98; 5,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,48; 20,11</t>
+          <t>-51,74; 17,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,44; 20,45</t>
+          <t>-52,68; 17,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-70,43; -10,56</t>
+          <t>-71,54; -13,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,81</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,77</t>
+          <t>0,9; 5,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,78</t>
+          <t>-2,25; 3,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,51</t>
+          <t>-3,48; 1,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 0,45</t>
+          <t>-4,13; 0,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,34</t>
+          <t>-0,83; 2,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,12</t>
+          <t>-1,56; 1,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,38</t>
+          <t>-1,0; 2,18</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-74,78; 626,73</t>
+          <t>-85,61; 450,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 296,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-58,19; 665,76</t>
+          <t>-57,69; 693,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-87,17; 406,12</t>
+          <t>-90,77; 460,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-60,94; 648,76</t>
+          <t>-73,37; 600,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,71</t>
+          <t>-2,22; 0,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; -0,18</t>
+          <t>-2,88; -0,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,65</t>
+          <t>-2,4; 0,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,26</t>
+          <t>-1,86; 1,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,88</t>
+          <t>-2,15; 1,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,71; -0,93</t>
+          <t>-3,51; -0,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,59</t>
+          <t>-1,51; 0,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,1; -0,06</t>
+          <t>-2,16; -0,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,62; -0,55</t>
+          <t>-2,58; -0,58</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-53,36; 34,88</t>
+          <t>-56,07; 27,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-73,45; -0,8</t>
+          <t>-74,33; -8,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,24; 28,68</t>
+          <t>-61,74; 21,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-46,87; 50,37</t>
+          <t>-43,82; 51,32</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-50,25; 35,52</t>
+          <t>-52,45; 40,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,47; -31,59</t>
+          <t>-83,57; -27,06</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-41,07; 21,31</t>
+          <t>-40,0; 23,26</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-54,93; -1,95</t>
+          <t>-55,59; -0,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-65,75; -18,69</t>
+          <t>-65,39; -19,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2004-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP2004-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les sangran las encias al cepillarse</t>
+          <t>Menores a los que les sangran las encías</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-6,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,91</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,14; 2,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,57; 4,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,82; -2,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,3; 7,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,5; 2,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,64; 6,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,14; 3,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; 1,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,75; 0,84</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,99%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,52; 91,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,45; 131,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 16,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,14; 267,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 151,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 291,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,01; 85,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,21; 29,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,77; 36,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-1,76</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 8,38</t>
+          <t>-1,84; 1,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 1,97</t>
+          <t>-1,97; 1,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 6,78</t>
+          <t>-3,65; -0,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 3,3</t>
+          <t>-3,49; 0,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 4,57</t>
+          <t>-3,79; -0,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,47; -2,66</t>
+          <t>-3,7; -0,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 3,61</t>
+          <t>-2,16; 0,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 1,81</t>
+          <t>-2,34; 0,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 0,86</t>
+          <t>-2,95; -0,54</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>-1,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-49,52%</t>
+          <t>-0,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,66%</t>
+          <t>-53,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-37,85%</t>
+          <t>-41,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-33,01%</t>
+          <t>-49,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-89,73%</t>
+          <t>-49,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,62%</t>
+          <t>-24,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-41,86%</t>
+          <t>-27,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-55,73%</t>
+          <t>-51,22%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,01; 282,74</t>
+          <t>-47,5; 96,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-92,43; 112,38</t>
+          <t>-49,67; 87,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 291,91</t>
+          <t>-81,69; 8,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-79,67; 87,29</t>
+          <t>-69,67; 11,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-85,75; 129,79</t>
+          <t>-76,32; 1,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 33,6</t>
+          <t>-75,7; 4,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,99; 89,47</t>
+          <t>-52,22; 15,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-76,47; 49,75</t>
+          <t>-54,88; 13,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-89,36; 29,93</t>
+          <t>-71,08; -17,61</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>0,64</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,25</t>
+          <t>-2,19; 3,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,05</t>
+          <t>-3,26; 1,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; -0,17</t>
+          <t>-4,22; 0,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,98</t>
+          <t>0,0; 2,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,2</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,05</t>
+          <t>1,07; 5,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,47</t>
+          <t>-0,84; 2,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,44</t>
+          <t>-1,58; 0,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; -0,48</t>
+          <t>-0,9; 2,28</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-41,41%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-49,2%</t>
+          <t>-34,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-49,27%</t>
+          <t>-75,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,65%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-51,32%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-24,3%</t>
+          <t>66,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-27,82%</t>
+          <t>-17,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-50,27%</t>
+          <t>65,26%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,26; 13,44</t>
+          <t>-78,95; 577,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,24; 5,0</t>
+          <t>-100,0; 439,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,16; 1,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,82; 88,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,85; 104,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,98; 5,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,74; 17,98</t>
+          <t>-66,79; 740,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,68; 17,73</t>
+          <t>-92,19; 350,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,54; -13,14</t>
+          <t>-62,28; 712,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-1,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,87</t>
+          <t>-1,85; 1,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,47</t>
+          <t>-2,29; 0,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,5</t>
+          <t>-3,9; -0,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 3,58</t>
+          <t>-2,16; 0,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 1,36</t>
+          <t>-2,89; -0,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,09</t>
+          <t>-2,35; 0,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 2,34</t>
+          <t>-1,53; 0,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,07</t>
+          <t>-2,24; -0,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,18</t>
+          <t>-2,52; -0,5</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-7,7%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-17,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-65,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>-22,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-34,49%</t>
+          <t>-48,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-74,44%</t>
+          <t>-27,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>66,53%</t>
+          <t>-15,27%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-17,16%</t>
+          <t>-32,94%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>60,66%</t>
+          <t>-46,52%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,6; 50,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,94; 36,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,34; -32,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-85,61; 450,85</t>
+          <t>-54,86; 35,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 296,55</t>
+          <t>-71,76; -10,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,08; 23,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-57,69; 693,02</t>
+          <t>-40,14; 25,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-90,77; 460,35</t>
+          <t>-56,54; -1,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-73,37; 600,16</t>
+          <t>-65,35; -16,39</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,88</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-1,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 0,73</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; -0,27</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 0,5</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-1,86; 1,4</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-2,15; 1,0</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; -0,84</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 0,63</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; -0,02</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; -0,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-22,98%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-48,4%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-27,77%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-7,7%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-17,67%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-64,31%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-15,26%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-32,91%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-45,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-56,07; 27,63</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-74,33; -8,23</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-61,74; 21,28</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-43,82; 51,32</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-52,45; 40,37</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-83,57; -27,06</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-40,0; 23,26</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-55,59; -0,22</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-65,39; -19,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
